--- a/predictions/8features_LOOCV_las/rmse_test_v0.xlsx
+++ b/predictions/8features_LOOCV_las/rmse_test_v0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\predictions\8features_LOOCV_las\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{13F5D6DA-0F3A-45EB-A153-0240D8AF8B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B4D1F-9D8B-4BA3-A383-DDFED456009E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="rmse_test_v0" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -386,9 +396,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -526,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +716,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -867,9 +883,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5552,7 +5570,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0"/>
@@ -5566,7 +5584,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8646583" cy="6244167"/>
+    <xdr:ext cx="8654143" cy="6253843"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5599,15 +5617,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5932,11 +5950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6948,26 +6966,26 @@
         <v>6.1759279260825304</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>40</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>45.844098260000003</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>45.441617809999997</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>47.183117152200602</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>47.344055756248601</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>47.7998175126625</v>
       </c>
     </row>
@@ -6994,26 +7012,26 @@
         <v>5.9317002754781596</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>42</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>3.8663920809999999</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>3.947890299</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>3.7181459594711401</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>3.6424806196657298</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>3.5636329055121898</v>
       </c>
     </row>
@@ -7155,26 +7173,26 @@
         <v>6.2432292126003901</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>49</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>63.419763119999999</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>61.711586320000002</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>64.153483325106194</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>64.290726356746504</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>63.504233500952097</v>
       </c>
     </row>
@@ -7569,26 +7587,26 @@
         <v>6.3887922022224499</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>67</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>46.141218600000002</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <v>46.601151110000004</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>45.077774968903199</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>45.242709775528297</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>45.146791343517698</v>
       </c>
     </row>
@@ -7661,26 +7679,26 @@
         <v>10.2074329134187</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>71</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>56.283092320000002</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>57.307152600000002</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>60.5615584370831</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>58.429975460723597</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>58.738924874501201</v>
       </c>
     </row>
@@ -8213,26 +8231,26 @@
         <v>6.7248697329392497</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>95</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>61.617378389999999</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <v>60.718593609999999</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>61.668583915580399</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>61.713447236230799</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>62.081915088156499</v>
       </c>
     </row>

--- a/predictions/8features_LOOCV_las/rmse_test_v0.xlsx
+++ b/predictions/8features_LOOCV_las/rmse_test_v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\predictions\8features_LOOCV_las\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B4D1F-9D8B-4BA3-A383-DDFED456009E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF8246-077B-4D27-B92E-FEC41D77044F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>XGB_1</t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>Sample_weight2(VA=0.01)</t>
+  </si>
+  <si>
+    <t>XGB_6</t>
+  </si>
+  <si>
+    <t>Sample_weight2(VA=0.001)</t>
+  </si>
+  <si>
+    <t>XGB_7</t>
+  </si>
+  <si>
+    <t>Sample_weight2(VA=0.01) Cleaned high rmse las</t>
   </si>
 </sst>
 </file>
@@ -4184,9 +4196,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>rmse_test_v0!$C$4:$G$4</c:f>
+              <c:f>rmse_test_v0!$C$4:$I$4</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>No sample weight</c:v>
                 </c:pt>
@@ -4201,16 +4213,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sample_weight2(VA=0.01)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sample_weight2(VA=0.001)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sample_weight2(VA=0.01) Cleaned high rmse las</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rmse_test_v0!$C$2:$G$2</c:f>
+              <c:f>rmse_test_v0!$C$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>14.67954584839449</c:v>
                 </c:pt>
@@ -4225,6 +4243,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14.223230302169403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.311202375010103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.13539549928065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4303,6 +4327,7 @@
         <c:axId val="1455209312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4470,6 +4495,3133 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rmse_test_v0!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$B$6:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$C$6:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>10.883234740000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.323479799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.75859951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9687964660000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.09943562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1126608260000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.437176130000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.999700109999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.886591409999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.021732650000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9726347769999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.16928261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.765420776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.073355280000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.89158434</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2564656159999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6299213540000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.904536024</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.584661100000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.375809447</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.421101589999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.32831595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9146057609999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.591013520000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2852017440000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.887852267</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.174801240000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.533402049999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.753312699999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.947367589999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.4735271</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.445498919999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.675515730000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.06594102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.75884141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0872414270000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.74469247</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6340239399999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3627408609999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3056373949999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.844098260000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8839047000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.8663920809999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.815893930000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.098759289999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.953519180000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.14988584</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.3230299079999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.99660547</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>63.419763119999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.46279359</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.9218893469999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2793209689999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.275085409999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.7718703710000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.9875088129999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.543013819999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.5494801259999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0643863409999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.2315951350000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.3061974270000007</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1009342780000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.694973879999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.130645599999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.63206591</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6340674039999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.4643585259999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.141218600000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.614118962</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.1296724</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11.978560010000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.283092320000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.828232829999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.106731959999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.595673420000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.7820937089999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.9664726650000004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.118688290000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.65507582</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.52550192</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.64549366</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.1436356940000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.530312609999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.688362550000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>18.146086159999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.36150262</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0753875930000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.954398550000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3421293690000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.8264101060000009</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.0430696560000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5473963390000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.34797547</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.798133409999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.6483976059999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>61.617378389999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.194050743</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.4038327019999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.76864299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15.6750626</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.4289008980000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12.101550830000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.7478542399999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.604569911</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.4136665280000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.00542703</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.60750071</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.112554159999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.6579294469999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B018-4743-9898-C585DD2A547A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rmse_test_v0!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$B$6:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$D$6:$D$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>10.822207669999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5971714210000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.586767180000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0649214150000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.94656919</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.283172295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.001499219999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.94489503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.673451849999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.20930287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5997671799999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.973394540000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5978326740000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.210026760000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.223080899999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1691434330000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8393734400000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8920162340000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.147358489999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3851685739999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.089631519999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.462433750000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6018183160000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.090781369999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.7056964170000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9161445160000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.706338779999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.68167888</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18.62401839</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.381579769999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.106021569999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.06613875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.15352013</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.722873660000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.7939685</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6764348560000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.699897310000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0908934129999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.3751266229999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.1624262869999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.441617809999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8063992359999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.947890299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.961726250000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.985443949999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.85034978</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.73791458</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.170844851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.4225667729999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>61.711586320000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30.818860109999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1968513789999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.3021423429999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.688843259999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5516481249999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.1491102839999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.173231810000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.3452514190000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9743918249999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.8942111109999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0047265449999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1087140009999992</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.185642659999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.42818424</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.573404050000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.4714407289999993</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5864337370000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46.601151110000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.6106675629999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.629490759999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.75933933</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57.307152600000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.068456319999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.778445980000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.81356916</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.889967575</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4634078490000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.742692810000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.82239195</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.909235509999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16.964244099999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.8393728579999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>15.91458321</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.96138277</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>15.049758219999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.079497010000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.1974637469999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.80380959</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3085665129999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7707403260000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.000892221</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.463590811</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.46856195</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.874809880000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.838598502</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60.718593609999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2937270420000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.7634794129999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.992066820000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.343530690000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.7114271199999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.665335069999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.528022322</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.7356852819999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.7204131340000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.203589999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.594660210000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>25.919463749999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.733178449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B018-4743-9898-C585DD2A547A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rmse_test_v0!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$B$6:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$E$6:$E$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>10.153916141868001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.732244324841499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.154552806514101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3763278217279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4733078715474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9286006231171404</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.405541876110501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.024082921100401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.5712996752466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.292208689970501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.99050386199524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.958377359502201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.72436061970259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.883602373442301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.969844376866899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2152810368771396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3487035214296004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0588294588820997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.098248759431101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7348109096378002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.342647523798901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.1419653145102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9175886502778399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.435206749274901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.9994397428180495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6142375172961598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.271529175641401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.7228428749331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.9029880480718</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.970110245237802</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.1257884249894</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.558747501692501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.9077947388109</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.976164088470899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.3501788001766</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9291733088974201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7671102017680802</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.35095252783153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6396576211525904</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.0202252519629704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.183117152200602</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.8539586059372803</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.7181459594711401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.565244622952498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>38.489370727365802</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.738162706996301</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.137214489330699</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.1498338322736901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.9986039621675102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64.153483325106194</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.981021946291101</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.02364757392193</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.2799766534792703</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.043449890155301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.5965729126412</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.2061661008017097</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.440037902371301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5653551690885408</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9444956001374099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.6593482410310996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0027337797654701</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.7329223717729292</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.826753603014801</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.442789410264</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.975651827748599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.1008448985997497</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.1224801818917696</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45.077774968903199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7907676396805003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.9105249570373</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.398382995540301</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60.5615584370831</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>15.772003946636801</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15.9837250658301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.2857280437204</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.8828128637152</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.9801564483001801</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.351325260568402</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.678446118474099</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.613721435983301</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.1206791182084</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.5755163751006798</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2817389326426607</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19.171177370031799</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.0732727599562</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24.8969905008857</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.961522779646501</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.922526242042</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.3318022585781604</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9138068365440599</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.953331131775601</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.0514055093799901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.206078728802099</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.787319640323201</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.8082477476613796</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>61.668583915580399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.4607642998967902</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.0849607732233499</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22.589922209951698</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15.5460186654974</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.1240627056936301</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.3388320597191399</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.5014960172144898</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.9443419680068899</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.1928037999188303</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12.4193716463125</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.6295898026621</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.002908347173399</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.7986857945770098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B018-4743-9898-C585DD2A547A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>rmse_test_v0!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB_7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$B$6:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>rmse_test_v0!$I$6:$I$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>9.3048310300363397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3976741118028908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.777100832414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.240458390693901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.6454623178149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2127447564136604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.857909387054899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.782638697457799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.631857180707801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.467527820427501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9404651342463302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.4272777633267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5175379163526799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.278898601373399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.485196508572699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9105302253883298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6320335620116202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2812165588503497</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.1516985907005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8267849804837297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.0340303102258</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.1638063138722</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2857268549856702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.415056195009701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8694442436653196</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3731380327754596</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.614443004276101</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.13214719726742</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4181813477957999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.223018355298102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.0180530881011</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.490472920245001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.0244028643181</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.741460633096899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.322089649511099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.6405803528910798</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.7826781272133898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4659634149765699</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.3593041680996096</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1746365446518396</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7304127681870103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5399547379491798</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.9607040457307701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.186419176118498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.3570199419032</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.0760764193356</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.586224572050899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.9208987766714802</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8099165589649902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.138572076247399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6876896800390897</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.3091692276326699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.582614609617</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.7726158363179607</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.81193844949071</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.541832595550702</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.82559578386571</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.9959456064062202</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7466111225551399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.7071380003592296</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1497370143418308</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20.422629057394602</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.232378499359401</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.665014748316301</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.8947411142466102</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.0830729275983098</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9606720685272099</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.690374756470298</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.9178025441354691</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0444130142375201</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.6941988228802</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.3289594050731</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.930703951367001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>11.420543095351601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.7054364405006996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28.473205942963499</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.2144812472617</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.7637009070609295</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.0330309559496396</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.6742451480283096</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.79466223290106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14.118511548668801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.231439693398102</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>23.970150733480502</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.1735504177884</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16.84844892796</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.16555528371621</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6465183560535799</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.1496603080469203</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.9411848035685502</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.951248061069901</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17.063082043896301</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.7241705012733597</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.6228286095969802</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.7450977085462496</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.734497747538501</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.9905985413506</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.3419817322274996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.6933793195680806</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.4918063873834901</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.2202749788071197</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.7432460649733699</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.9029148443354291</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>11.3221844883234</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26.0806998814708</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.7790600773417098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B018-4743-9898-C585DD2A547A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1529744592"/>
+        <c:axId val="1455163136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1529744592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455163136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1455163136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529744592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4511,6 +7663,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5569,6 +8761,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
@@ -5617,16 +9325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5651,6 +9359,34 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="12363450" y="8039100"/>
+    <xdr:ext cx="13801725" cy="7315200"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D62EB03-1F1D-42CD-AE14-9BC1E835A6F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5951,10 +9687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP8" sqref="AP8"/>
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,9 +9699,10 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" t="str">
         <f>C5</f>
         <v>XGB_1</v>
@@ -5987,7 +9724,7 @@
         <v>XGB_5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <f t="shared" ref="C2:D2" si="1">AVERAGE(C6:C114)</f>
         <v>14.67954584839449</v>
@@ -6008,8 +9745,16 @@
         <f>AVERAGE(G6:G114)</f>
         <v>14.223230302169403</v>
       </c>
+      <c r="H2" s="1">
+        <f>AVERAGE(H6:H114)</f>
+        <v>14.311202375010103</v>
+      </c>
+      <c r="I2" s="1">
+        <f>AVERAGE(I6:I114)</f>
+        <v>11.13539549928065</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>115</v>
       </c>
@@ -6025,8 +9770,14 @@
       <c r="G4" t="s">
         <v>119</v>
       </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6045,8 +9796,14 @@
       <c r="G5" t="s">
         <v>114</v>
       </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6068,8 +9825,14 @@
       <c r="G6">
         <v>10.033347761295399</v>
       </c>
+      <c r="H6">
+        <v>10.5841214059013</v>
+      </c>
+      <c r="I6">
+        <v>9.3048310300363397</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6091,8 +9854,14 @@
       <c r="G7">
         <v>11.0816087541165</v>
       </c>
+      <c r="H7">
+        <v>12.139642063024301</v>
+      </c>
+      <c r="I7">
+        <v>8.3976741118028908</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6114,8 +9883,14 @@
       <c r="G8">
         <v>14.092989629501799</v>
       </c>
+      <c r="H8">
+        <v>14.459989947355799</v>
+      </c>
+      <c r="I8">
+        <v>13.777100832414</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6137,8 +9912,14 @@
       <c r="G9">
         <v>10.205106632540099</v>
       </c>
+      <c r="H9">
+        <v>10.398508995842199</v>
+      </c>
+      <c r="I9">
+        <v>10.240458390693901</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6160,8 +9941,14 @@
       <c r="G10">
         <v>11.619018565449601</v>
       </c>
+      <c r="H10">
+        <v>11.7848976942685</v>
+      </c>
+      <c r="I10">
+        <v>11.6454623178149</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6183,8 +9970,14 @@
       <c r="G11">
         <v>7.5879719805057597</v>
       </c>
+      <c r="H11">
+        <v>6.9157225388680503</v>
+      </c>
+      <c r="I11">
+        <v>7.2127447564136604</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6206,8 +9999,14 @@
       <c r="G12">
         <v>17.728909337168702</v>
       </c>
+      <c r="H12">
+        <v>19.370007146800901</v>
+      </c>
+      <c r="I12">
+        <v>18.857909387054899</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6229,8 +10028,14 @@
       <c r="G13">
         <v>17.021590372530401</v>
       </c>
+      <c r="H13">
+        <v>16.5967347346118</v>
+      </c>
+      <c r="I13">
+        <v>16.782638697457799</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6252,8 +10057,14 @@
       <c r="G14">
         <v>12.8248283910906</v>
       </c>
+      <c r="H14">
+        <v>12.719093880055301</v>
+      </c>
+      <c r="I14">
+        <v>12.631857180707801</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6275,8 +10086,14 @@
       <c r="G15">
         <v>14.8216995984079</v>
       </c>
+      <c r="H15">
+        <v>14.657991675193999</v>
+      </c>
+      <c r="I15">
+        <v>14.467527820427501</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6298,8 +10115,14 @@
       <c r="G16">
         <v>6.1536482699049202</v>
       </c>
+      <c r="H16">
+        <v>6.3399333129245603</v>
+      </c>
+      <c r="I16">
+        <v>5.9404651342463302</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6321,8 +10144,14 @@
       <c r="G17">
         <v>24.224975787074801</v>
       </c>
+      <c r="H17">
+        <v>21.8893186264878</v>
+      </c>
+      <c r="I17">
+        <v>22.4272777633267</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6344,8 +10173,14 @@
       <c r="G18">
         <v>3.6164357085830199</v>
       </c>
+      <c r="H18">
+        <v>3.5212211743020299</v>
+      </c>
+      <c r="I18">
+        <v>3.5175379163526799</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6367,8 +10202,14 @@
       <c r="G19">
         <v>17.7989783209837</v>
       </c>
+      <c r="H19">
+        <v>18.061718905570199</v>
+      </c>
+      <c r="I19">
+        <v>17.278898601373399</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6390,8 +10231,14 @@
       <c r="G20">
         <v>18.855505116533902</v>
       </c>
+      <c r="H20">
+        <v>14.0979501275087</v>
+      </c>
+      <c r="I20">
+        <v>16.485196508572699</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6413,8 +10260,14 @@
       <c r="G21">
         <v>6.1322333833650697</v>
       </c>
+      <c r="H21">
+        <v>6.0738649946210597</v>
+      </c>
+      <c r="I21">
+        <v>5.9105302253883298</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6436,8 +10289,14 @@
       <c r="G22">
         <v>5.5576585910598304</v>
       </c>
+      <c r="H22">
+        <v>5.1903323343472403</v>
+      </c>
+      <c r="I22">
+        <v>5.6320335620116202</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6459,8 +10318,14 @@
       <c r="G23">
         <v>5.2533249639384199</v>
       </c>
+      <c r="H23">
+        <v>5.42322364041837</v>
+      </c>
+      <c r="I23">
+        <v>4.2812165588503497</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -6482,8 +10347,14 @@
       <c r="G24">
         <v>18.392317023940901</v>
       </c>
+      <c r="H24">
+        <v>18.344222095299099</v>
+      </c>
+      <c r="I24">
+        <v>13.1516985907005</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -6505,8 +10376,14 @@
       <c r="G25">
         <v>6.6732044009563802</v>
       </c>
+      <c r="H25">
+        <v>6.2884735798604003</v>
+      </c>
+      <c r="I25">
+        <v>5.8267849804837297</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -6528,8 +10405,14 @@
       <c r="G26">
         <v>13.1712447738525</v>
       </c>
+      <c r="H26">
+        <v>13.1929887715226</v>
+      </c>
+      <c r="I26">
+        <v>13.0340303102258</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -6551,8 +10434,14 @@
       <c r="G27">
         <v>12.2749297202853</v>
       </c>
+      <c r="H27">
+        <v>12.3841164150507</v>
+      </c>
+      <c r="I27">
+        <v>12.1638063138722</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -6574,8 +10463,14 @@
       <c r="G28">
         <v>7.9892069039069504</v>
       </c>
+      <c r="H28">
+        <v>7.6458494219478403</v>
+      </c>
+      <c r="I28">
+        <v>7.2857268549856702</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -6597,8 +10492,14 @@
       <c r="G29">
         <v>23.990768722502199</v>
       </c>
+      <c r="H29">
+        <v>23.568379587753402</v>
+      </c>
+      <c r="I29">
+        <v>23.415056195009701</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -6620,8 +10521,14 @@
       <c r="G30">
         <v>5.2694658372809497</v>
       </c>
+      <c r="H30">
+        <v>5.8374684019484997</v>
+      </c>
+      <c r="I30">
+        <v>5.8694442436653196</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -6643,8 +10550,14 @@
       <c r="G31">
         <v>4.4224657767791999</v>
       </c>
+      <c r="H31">
+        <v>4.6185756901081696</v>
+      </c>
+      <c r="I31">
+        <v>4.3731380327754596</v>
+      </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -6666,8 +10579,14 @@
       <c r="G32">
         <v>23.449361035096999</v>
       </c>
+      <c r="H32">
+        <v>23.4294773024005</v>
+      </c>
+      <c r="I32">
+        <v>23.614443004276101</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -6689,8 +10608,14 @@
       <c r="G33">
         <v>10.2455852059623</v>
       </c>
+      <c r="H33">
+        <v>10.508837757370401</v>
+      </c>
+      <c r="I33">
+        <v>9.13214719726742</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -6712,8 +10637,14 @@
       <c r="G34">
         <v>9.9879331570715593</v>
       </c>
+      <c r="H34">
+        <v>9.8242691515584397</v>
+      </c>
+      <c r="I34">
+        <v>8.4181813477957999</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -6735,8 +10666,14 @@
       <c r="G35">
         <v>31.2560206146069</v>
       </c>
+      <c r="H35">
+        <v>32.608659968313802</v>
+      </c>
+      <c r="I35">
+        <v>29.223018355298102</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -6758,8 +10695,14 @@
       <c r="G36">
         <v>11.306140536699001</v>
       </c>
+      <c r="H36">
+        <v>11.5005448109023</v>
+      </c>
+      <c r="I36">
+        <v>11.0180530881011</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -6781,8 +10724,14 @@
       <c r="G37">
         <v>24.992782940007299</v>
       </c>
+      <c r="H37">
+        <v>24.363830970918901</v>
+      </c>
+      <c r="I37">
+        <v>23.490472920245001</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -6804,8 +10753,14 @@
       <c r="G38">
         <v>12.892031939790201</v>
       </c>
+      <c r="H38">
+        <v>13.166053074809399</v>
+      </c>
+      <c r="I38">
+        <v>13.0244028643181</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -6827,8 +10782,14 @@
       <c r="G39">
         <v>18.6812661544839</v>
       </c>
+      <c r="H39">
+        <v>19.163013379788499</v>
+      </c>
+      <c r="I39">
+        <v>18.741460633096899</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -6850,8 +10811,14 @@
       <c r="G40">
         <v>10.8509710801137</v>
       </c>
+      <c r="H40">
+        <v>10.8265788324124</v>
+      </c>
+      <c r="I40">
+        <v>10.322089649511099</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -6873,8 +10840,14 @@
       <c r="G41">
         <v>8.9126003401409193</v>
       </c>
+      <c r="H41">
+        <v>8.6348527996143893</v>
+      </c>
+      <c r="I41">
+        <v>8.6405803528910798</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -6896,8 +10869,14 @@
       <c r="G42">
         <v>8.2529409613656703</v>
       </c>
+      <c r="H42">
+        <v>8.3637321173428205</v>
+      </c>
+      <c r="I42">
+        <v>6.7826781272133898</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -6919,8 +10898,14 @@
       <c r="G43">
         <v>7.3305970187443998</v>
       </c>
+      <c r="H43">
+        <v>7.58591948049314</v>
+      </c>
+      <c r="I43">
+        <v>5.4659634149765699</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -6942,8 +10927,14 @@
       <c r="G44">
         <v>5.7096150309615599</v>
       </c>
+      <c r="H44">
+        <v>5.67871718772974</v>
+      </c>
+      <c r="I44">
+        <v>5.3593041680996096</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -6965,8 +10956,14 @@
       <c r="G45">
         <v>6.1759279260825304</v>
       </c>
+      <c r="H45">
+        <v>5.93998862799004</v>
+      </c>
+      <c r="I45">
+        <v>6.1746365446518396</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
@@ -6988,8 +10985,14 @@
       <c r="G46" s="2">
         <v>47.7998175126625</v>
       </c>
+      <c r="H46">
+        <v>47.571240119102598</v>
+      </c>
+      <c r="I46">
+        <v>6.7304127681870103</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -7011,8 +11014,14 @@
       <c r="G47">
         <v>5.9317002754781596</v>
       </c>
+      <c r="H47">
+        <v>5.9087338947774599</v>
+      </c>
+      <c r="I47">
+        <v>5.5399547379491798</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
@@ -7034,8 +11043,14 @@
       <c r="G48" s="3">
         <v>3.5636329055121898</v>
       </c>
+      <c r="H48">
+        <v>3.7438909547367798</v>
+      </c>
+      <c r="I48">
+        <v>3.9607040457307701</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -7057,31 +11072,43 @@
       <c r="G49">
         <v>30.298273949699801</v>
       </c>
+      <c r="H49">
+        <v>28.9735277427935</v>
+      </c>
+      <c r="I49">
+        <v>31.186419176118498</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>44</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>47.098759289999997</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>46.985443949999997</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>38.489370727365802</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>36.277405728504299</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>27.8337538561244</v>
       </c>
+      <c r="H50" s="2">
+        <v>39.054188181138898</v>
+      </c>
+      <c r="I50">
+        <v>12.3570199419032</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -7103,8 +11130,14 @@
       <c r="G51">
         <v>14.012037435687899</v>
       </c>
+      <c r="H51">
+        <v>14.0727460968419</v>
+      </c>
+      <c r="I51">
+        <v>14.0760764193356</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -7126,8 +11159,14 @@
       <c r="G52">
         <v>16.1404856773466</v>
       </c>
+      <c r="H52">
+        <v>17.933311945391701</v>
+      </c>
+      <c r="I52">
+        <v>17.586224572050899</v>
+      </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -7149,8 +11188,14 @@
       <c r="G53">
         <v>6.7632985909054497</v>
       </c>
+      <c r="H53">
+        <v>6.4317028822812796</v>
+      </c>
+      <c r="I53">
+        <v>5.9208987766714802</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -7172,8 +11217,14 @@
       <c r="G54">
         <v>6.2432292126003901</v>
       </c>
+      <c r="H54">
+        <v>5.51709901283047</v>
+      </c>
+      <c r="I54">
+        <v>3.8099165589649902</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -7195,8 +11246,14 @@
       <c r="G55" s="2">
         <v>63.504233500952097</v>
       </c>
+      <c r="H55">
+        <v>62.766140400784003</v>
+      </c>
+      <c r="I55">
+        <v>17.138572076247399</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -7218,8 +11275,14 @@
       <c r="G56">
         <v>20.679948275546</v>
       </c>
+      <c r="H56">
+        <v>20.967798805589801</v>
+      </c>
+      <c r="I56">
+        <v>6.6876896800390897</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -7241,8 +11304,14 @@
       <c r="G57">
         <v>6.8171260655513803</v>
       </c>
+      <c r="H57">
+        <v>6.9036469259293902</v>
+      </c>
+      <c r="I57">
+        <v>4.3091692276326699</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -7264,8 +11333,14 @@
       <c r="G58">
         <v>8.2120128599668192</v>
       </c>
+      <c r="H58">
+        <v>8.5112058736718001</v>
+      </c>
+      <c r="I58">
+        <v>17.582614609617</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -7287,8 +11362,14 @@
       <c r="G59">
         <v>18.2827307007069</v>
       </c>
+      <c r="H59">
+        <v>17.778717145772799</v>
+      </c>
+      <c r="I59">
+        <v>8.7726158363179607</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -7310,8 +11391,14 @@
       <c r="G60">
         <v>7.7198987023954802</v>
       </c>
+      <c r="H60">
+        <v>7.6961715970593199</v>
+      </c>
+      <c r="I60">
+        <v>6.81193844949071</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -7333,8 +11420,14 @@
       <c r="G61">
         <v>7.5881320138295099</v>
       </c>
+      <c r="H61">
+        <v>7.4723214212840503</v>
+      </c>
+      <c r="I61">
+        <v>16.541832595550702</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -7356,8 +11449,14 @@
       <c r="G62">
         <v>18.4430977586373</v>
       </c>
+      <c r="H62">
+        <v>17.503037273049902</v>
+      </c>
+      <c r="I62">
+        <v>8.82559578386571</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7379,8 +11478,14 @@
       <c r="G63">
         <v>9.3928051432799595</v>
       </c>
+      <c r="H63">
+        <v>8.8546549845016695</v>
+      </c>
+      <c r="I63">
+        <v>5.9959456064062202</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -7402,8 +11507,14 @@
       <c r="G64">
         <v>6.4502277430874901</v>
       </c>
+      <c r="H64">
+        <v>6.5538594651011799</v>
+      </c>
+      <c r="I64">
+        <v>4.7466111225551399</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -7425,8 +11536,14 @@
       <c r="G65">
         <v>4.3217133385771298</v>
       </c>
+      <c r="H65">
+        <v>4.9929178255292497</v>
+      </c>
+      <c r="I65">
+        <v>6.7071380003592296</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -7448,8 +11565,14 @@
       <c r="G66">
         <v>6.50196908195867</v>
       </c>
+      <c r="H66">
+        <v>6.7690746134907798</v>
+      </c>
+      <c r="I66">
+        <v>9.1497370143418308</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -7471,8 +11594,14 @@
       <c r="G67">
         <v>9.2883020624867996</v>
       </c>
+      <c r="H67">
+        <v>8.9868777034805305</v>
+      </c>
+      <c r="I67">
+        <v>20.422629057394602</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -7494,8 +11623,14 @@
       <c r="G68">
         <v>29.808660838360701</v>
       </c>
+      <c r="H68">
+        <v>30.7699688283362</v>
+      </c>
+      <c r="I68">
+        <v>14.232378499359401</v>
+      </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -7517,8 +11652,14 @@
       <c r="G69">
         <v>13.724686995793</v>
       </c>
+      <c r="H69">
+        <v>13.791706297147901</v>
+      </c>
+      <c r="I69">
+        <v>11.665014748316301</v>
+      </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -7540,8 +11681,14 @@
       <c r="G70">
         <v>10.7893543052267</v>
       </c>
+      <c r="H70">
+        <v>10.819440056589199</v>
+      </c>
+      <c r="I70">
+        <v>6.8947411142466102</v>
+      </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -7563,8 +11710,14 @@
       <c r="G71">
         <v>6.9853481153560599</v>
       </c>
+      <c r="H71">
+        <v>7.1598989462611398</v>
+      </c>
+      <c r="I71">
+        <v>6.0830729275983098</v>
+      </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -7586,8 +11739,14 @@
       <c r="G72">
         <v>6.3887922022224499</v>
       </c>
+      <c r="H72">
+        <v>6.5528109472345601</v>
+      </c>
+      <c r="I72">
+        <v>3.9606720685272099</v>
+      </c>
     </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -7609,8 +11768,14 @@
       <c r="G73" s="2">
         <v>45.146791343517698</v>
       </c>
+      <c r="H73">
+        <v>45.679066883225801</v>
+      </c>
+      <c r="I73">
+        <v>16.690374756470298</v>
+      </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -7632,8 +11797,14 @@
       <c r="G74">
         <v>4.5930865387697102</v>
       </c>
+      <c r="H74">
+        <v>4.67893397874015</v>
+      </c>
+      <c r="I74">
+        <v>9.9178025441354691</v>
+      </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -7655,8 +11826,14 @@
       <c r="G75">
         <v>18.407711197506401</v>
       </c>
+      <c r="H75">
+        <v>18.832626332314199</v>
+      </c>
+      <c r="I75">
+        <v>2.0444130142375201</v>
+      </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -7678,8 +11855,14 @@
       <c r="G76">
         <v>10.2074329134187</v>
       </c>
+      <c r="H76">
+        <v>10.010744092383501</v>
+      </c>
+      <c r="I76">
+        <v>16.6941988228802</v>
+      </c>
     </row>
-    <row r="77" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
@@ -7701,8 +11884,14 @@
       <c r="G77" s="2">
         <v>58.738924874501201</v>
       </c>
+      <c r="H77">
+        <v>59.250830700381599</v>
+      </c>
+      <c r="I77">
+        <v>13.3289594050731</v>
+      </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -7724,8 +11913,14 @@
       <c r="G78">
         <v>15.350034258068799</v>
       </c>
+      <c r="H78">
+        <v>16.390794867951399</v>
+      </c>
+      <c r="I78">
+        <v>12.930703951367001</v>
+      </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -7747,8 +11942,14 @@
       <c r="G79">
         <v>16.432235164285501</v>
       </c>
+      <c r="H79">
+        <v>16.333488053640501</v>
+      </c>
+      <c r="I79">
+        <v>11.420543095351601</v>
+      </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -7770,8 +11971,14 @@
       <c r="G80">
         <v>12.9599195742297</v>
       </c>
+      <c r="H80">
+        <v>12.4305205608647</v>
+      </c>
+      <c r="I80">
+        <v>6.7054364405006996</v>
+      </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -7793,8 +12000,14 @@
       <c r="G81">
         <v>11.9148376465707</v>
       </c>
+      <c r="H81">
+        <v>11.2105353840349</v>
+      </c>
+      <c r="I81">
+        <v>28.473205942963499</v>
+      </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -7816,8 +12029,14 @@
       <c r="G82">
         <v>6.9339390115572899</v>
       </c>
+      <c r="H82">
+        <v>7.0017829276042001</v>
+      </c>
+      <c r="I82">
+        <v>14.2144812472617</v>
+      </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -7839,8 +12058,14 @@
       <c r="G83">
         <v>28.291902166054001</v>
       </c>
+      <c r="H83">
+        <v>28.2385750788143</v>
+      </c>
+      <c r="I83">
+        <v>8.7637009070609295</v>
+      </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -7862,8 +12087,14 @@
       <c r="G84">
         <v>19.7411289274953</v>
       </c>
+      <c r="H84">
+        <v>15.7024053958965</v>
+      </c>
+      <c r="I84">
+        <v>6.0330309559496396</v>
+      </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -7885,8 +12116,14 @@
       <c r="G85">
         <v>20.336680069519598</v>
       </c>
+      <c r="H85">
+        <v>20.805842922261899</v>
+      </c>
+      <c r="I85">
+        <v>4.6742451480283096</v>
+      </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -7908,8 +12145,14 @@
       <c r="G86">
         <v>9.2521617383099901</v>
       </c>
+      <c r="H86">
+        <v>9.4803336628649504</v>
+      </c>
+      <c r="I86">
+        <v>6.79466223290106</v>
+      </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -7931,8 +12174,14 @@
       <c r="G87">
         <v>5.2745971337545399</v>
       </c>
+      <c r="H87">
+        <v>5.1437991529725302</v>
+      </c>
+      <c r="I87">
+        <v>14.118511548668801</v>
+      </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -7954,8 +12203,14 @@
       <c r="G88">
         <v>8.09777186354078</v>
       </c>
+      <c r="H88">
+        <v>7.9652966075110099</v>
+      </c>
+      <c r="I88">
+        <v>16.231439693398102</v>
+      </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -7977,8 +12232,14 @@
       <c r="G89">
         <v>19.301324201290999</v>
       </c>
+      <c r="H89">
+        <v>19.8099614623838</v>
+      </c>
+      <c r="I89">
+        <v>23.970150733480502</v>
+      </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -8000,8 +12261,14 @@
       <c r="G90">
         <v>12.944473960352999</v>
       </c>
+      <c r="H90">
+        <v>17.976871634118201</v>
+      </c>
+      <c r="I90">
+        <v>14.1735504177884</v>
+      </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -8023,8 +12290,14 @@
       <c r="G91">
         <v>24.207994713154399</v>
       </c>
+      <c r="H91">
+        <v>24.1239186928211</v>
+      </c>
+      <c r="I91">
+        <v>16.84844892796</v>
+      </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -8046,8 +12319,14 @@
       <c r="G92">
         <v>7.7143077971760903</v>
       </c>
+      <c r="H92">
+        <v>13.755456644974799</v>
+      </c>
+      <c r="I92">
+        <v>5.16555528371621</v>
+      </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -8069,8 +12348,14 @@
       <c r="G93">
         <v>15.940717781744601</v>
       </c>
+      <c r="H93">
+        <v>16.203568228246201</v>
+      </c>
+      <c r="I93">
+        <v>8.6465183560535799</v>
+      </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -8092,8 +12377,14 @@
       <c r="G94">
         <v>5.2264443173174699</v>
       </c>
+      <c r="H94">
+        <v>5.4836156675255001</v>
+      </c>
+      <c r="I94">
+        <v>6.1496603080469203</v>
+      </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -8115,8 +12406,14 @@
       <c r="G95">
         <v>8.2028203213915596</v>
       </c>
+      <c r="H95">
+        <v>7.9462421991780996</v>
+      </c>
+      <c r="I95">
+        <v>2.9411848035685502</v>
+      </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -8138,8 +12435,14 @@
       <c r="G96">
         <v>9.5173340101405408</v>
       </c>
+      <c r="H96">
+        <v>10.5439343301855</v>
+      </c>
+      <c r="I96">
+        <v>12.951248061069901</v>
+      </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -8161,8 +12464,14 @@
       <c r="G97">
         <v>3.2040932654240302</v>
       </c>
+      <c r="H97">
+        <v>2.8846583230084799</v>
+      </c>
+      <c r="I97">
+        <v>17.063082043896301</v>
+      </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -8184,8 +12493,14 @@
       <c r="G98">
         <v>12.1130089176207</v>
       </c>
+      <c r="H98">
+        <v>12.0050433458209</v>
+      </c>
+      <c r="I98">
+        <v>6.7241705012733597</v>
+      </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -8207,8 +12522,14 @@
       <c r="G99">
         <v>16.661359630541401</v>
       </c>
+      <c r="H99">
+        <v>16.871749758190798</v>
+      </c>
+      <c r="I99">
+        <v>4.6228286095969802</v>
+      </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -8230,8 +12551,14 @@
       <c r="G100">
         <v>6.7248697329392497</v>
       </c>
+      <c r="H100">
+        <v>6.9626513713998204</v>
+      </c>
+      <c r="I100">
+        <v>5.7450977085462496</v>
+      </c>
     </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>98</v>
       </c>
@@ -8253,8 +12580,14 @@
       <c r="G101" s="2">
         <v>62.081915088156499</v>
       </c>
+      <c r="H101">
+        <v>62.247088847595101</v>
+      </c>
+      <c r="I101">
+        <v>23.734497747538501</v>
+      </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -8276,8 +12609,14 @@
       <c r="G102">
         <v>4.6331159206206403</v>
       </c>
+      <c r="H102">
+        <v>4.4880719326207403</v>
+      </c>
+      <c r="I102">
+        <v>15.9905985413506</v>
+      </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -8299,8 +12638,14 @@
       <c r="G103">
         <v>7.2894700033401696</v>
       </c>
+      <c r="H103">
+        <v>8.1140407245275501</v>
+      </c>
+      <c r="I103">
+        <v>5.3419817322274996</v>
+      </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -8322,8 +12667,14 @@
       <c r="G104">
         <v>28.5813822378861</v>
       </c>
+      <c r="H104">
+        <v>22.790279944809701</v>
+      </c>
+      <c r="I104">
+        <v>9.6933793195680806</v>
+      </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -8345,8 +12696,14 @@
       <c r="G105">
         <v>16.197528519158201</v>
       </c>
+      <c r="H105">
+        <v>16.0725433171398</v>
+      </c>
+      <c r="I105">
+        <v>3.4918063873834901</v>
+      </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -8368,8 +12725,14 @@
       <c r="G106">
         <v>8.3452484331983001</v>
       </c>
+      <c r="H106">
+        <v>7.4232474088192602</v>
+      </c>
+      <c r="I106">
+        <v>4.2202749788071197</v>
+      </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -8391,8 +12754,14 @@
       <c r="G107">
         <v>9.3006717925443496</v>
       </c>
+      <c r="H107">
+        <v>8.9715811708256208</v>
+      </c>
+      <c r="I107">
+        <v>7.7432460649733699</v>
+      </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -8414,8 +12783,14 @@
       <c r="G108">
         <v>5.3022870007221501</v>
       </c>
+      <c r="H108">
+        <v>4.9976839013194798</v>
+      </c>
+      <c r="I108">
+        <v>8.9029148443354291</v>
+      </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -8437,8 +12812,14 @@
       <c r="G109">
         <v>4.2619744626511897</v>
       </c>
+      <c r="H109">
+        <v>4.0236753627605903</v>
+      </c>
+      <c r="I109">
+        <v>11.3221844883234</v>
+      </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -8460,8 +12841,14 @@
       <c r="G110">
         <v>8.0591503765074695</v>
       </c>
+      <c r="H110">
+        <v>7.59193125245113</v>
+      </c>
+      <c r="I110">
+        <v>26.0806998814708</v>
+      </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -8483,8 +12870,14 @@
       <c r="G111">
         <v>12.158729056750101</v>
       </c>
+      <c r="H111">
+        <v>11.931575903457899</v>
+      </c>
+      <c r="I111">
+        <v>2.7790600773417098</v>
+      </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -8506,8 +12899,11 @@
       <c r="G112">
         <v>11.540731353788001</v>
       </c>
+      <c r="H112">
+        <v>11.3663095810236</v>
+      </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -8529,8 +12925,11 @@
       <c r="G113">
         <v>25.891965742379998</v>
       </c>
+      <c r="H113">
+        <v>25.602137170735801</v>
+      </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -8551,6 +12950,9 @@
       </c>
       <c r="G114">
         <v>2.9275524939348601</v>
+      </c>
+      <c r="H114">
+        <v>2.8221315347531299</v>
       </c>
     </row>
   </sheetData>
